--- a/presets/107資電組檢核表format.xlsx
+++ b/presets/107資電組檢核表format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lspss\OneDrive\文件\dinodino revive\dinodino_nirvana\build\web\presets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B249E9-3A51-408B-BB46-90AFF470358B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C846BA3B-16F5-4539-9D5F-33E54C4A1F00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="資電工程組" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="391">
   <si>
     <t>學年度學期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1627,6 +1627,50 @@
   </si>
   <si>
     <t>&amp;{credit}#5_0_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_0_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_0_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_0_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_0_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_1_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_2_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_2_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_3_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_3_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_3_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2302,7 +2346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2427,12 +2471,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2442,10 +2480,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
@@ -2457,58 +2507,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
@@ -2517,19 +2555,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2560,9 +2670,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2601,6 +2708,12 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2613,9 +2726,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2625,133 +2735,64 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3379,8 +3420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107:H111"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3397,16 +3438,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -3445,46 +3486,46 @@
       <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="136"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="96"/>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="57" t="s">
+      <c r="A9" s="130"/>
+      <c r="B9" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="96"/>
     </row>
     <row r="10" spans="1:8" ht="12" customHeight="1">
       <c r="A10" s="7"/>
@@ -3497,26 +3538,26 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="68" t="s">
+      <c r="B12" s="141"/>
+      <c r="C12" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="69"/>
+      <c r="D12" s="147"/>
       <c r="E12" s="23" t="s">
         <v>25</v>
       </c>
@@ -3531,19 +3572,19 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="49" t="s">
+      <c r="A13" s="142"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="145" t="s">
+      <c r="D13" s="52"/>
+      <c r="E13" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="145" t="s">
+      <c r="F13" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="145" t="s">
+      <c r="G13" s="47" t="s">
         <v>88</v>
       </c>
       <c r="H13" s="5">
@@ -3551,19 +3592,19 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="51" t="s">
+      <c r="A14" s="142"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="145" t="s">
+      <c r="D14" s="53"/>
+      <c r="E14" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="F14" s="145" t="s">
+      <c r="F14" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="145" t="s">
+      <c r="G14" s="47" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="4">
@@ -3571,19 +3612,19 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="51" t="s">
+      <c r="A15" s="142"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="145" t="s">
+      <c r="D15" s="53"/>
+      <c r="E15" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="F15" s="145" t="s">
+      <c r="F15" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="145" t="s">
+      <c r="G15" s="47" t="s">
         <v>90</v>
       </c>
       <c r="H15" s="4">
@@ -3591,19 +3632,19 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A16" s="64"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="51" t="s">
+      <c r="A16" s="142"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="145" t="s">
+      <c r="D16" s="53"/>
+      <c r="E16" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="F16" s="145" t="s">
+      <c r="F16" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="145" t="s">
+      <c r="G16" s="47" t="s">
         <v>91</v>
       </c>
       <c r="H16" s="4">
@@ -3611,19 +3652,19 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="51" t="s">
+      <c r="A17" s="142"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="145" t="s">
+      <c r="D17" s="53"/>
+      <c r="E17" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="F17" s="145" t="s">
+      <c r="F17" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="145" t="s">
+      <c r="G17" s="47" t="s">
         <v>92</v>
       </c>
       <c r="H17" s="4">
@@ -3631,19 +3672,19 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="51" t="s">
+      <c r="A18" s="144"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="145" t="s">
+      <c r="D18" s="53"/>
+      <c r="E18" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="F18" s="145" t="s">
+      <c r="F18" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="145" t="s">
+      <c r="G18" s="47" t="s">
         <v>93</v>
       </c>
       <c r="H18" s="4">
@@ -3661,26 +3702,26 @@
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="73" t="s">
+      <c r="B21" s="122"/>
+      <c r="C21" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="75"/>
+      <c r="D21" s="149"/>
       <c r="E21" s="22" t="s">
         <v>25</v>
       </c>
@@ -3695,118 +3736,118 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="70" t="s">
+      <c r="B22" s="99"/>
+      <c r="C22" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="146" t="s">
+      <c r="D22" s="69"/>
+      <c r="E22" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="146" t="s">
+      <c r="F22" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="146" t="s">
+      <c r="G22" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="148" t="s">
+      <c r="H22" s="77" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A23" s="78"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="80" t="s">
+      <c r="A23" s="100"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="147" t="s">
+      <c r="D23" s="103"/>
+      <c r="E23" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="147" t="s">
+      <c r="F23" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="G23" s="147" t="s">
+      <c r="G23" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="H23" s="149"/>
+      <c r="H23" s="78"/>
     </row>
     <row r="24" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="84" t="s">
+      <c r="B24" s="99"/>
+      <c r="C24" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="146" t="s">
+      <c r="D24" s="107"/>
+      <c r="E24" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="146" t="s">
+      <c r="F24" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="G24" s="146" t="s">
+      <c r="G24" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="149"/>
+      <c r="H24" s="78"/>
     </row>
     <row r="25" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A25" s="76"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="49" t="s">
+      <c r="A25" s="57"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="146" t="s">
+      <c r="D25" s="52"/>
+      <c r="E25" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="146" t="s">
+      <c r="F25" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="G25" s="146" t="s">
+      <c r="G25" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="149"/>
+      <c r="H25" s="78"/>
     </row>
     <row r="26" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="49" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="146" t="s">
+      <c r="D26" s="52"/>
+      <c r="E26" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="146" t="s">
+      <c r="F26" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="G26" s="146" t="s">
+      <c r="G26" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="H26" s="149"/>
+      <c r="H26" s="78"/>
     </row>
     <row r="27" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A27" s="82"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="49" t="s">
+      <c r="A27" s="104"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="145" t="s">
+      <c r="D27" s="52"/>
+      <c r="E27" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="145" t="s">
+      <c r="F27" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="G27" s="145" t="s">
+      <c r="G27" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="H27" s="150"/>
+      <c r="H27" s="79"/>
     </row>
     <row r="28" spans="1:8" ht="12" customHeight="1">
       <c r="A28" s="7"/>
@@ -3819,33 +3860,33 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
     </row>
     <row r="30" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="74"/>
-      <c r="C30" s="100" t="s">
+      <c r="B30" s="122"/>
+      <c r="C30" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="42" t="s">
+      <c r="D30" s="124"/>
+      <c r="E30" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="24" t="s">
         <v>1</v>
       </c>
       <c r="H30" s="35" t="s">
@@ -3853,73 +3894,73 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="70" t="s">
+      <c r="B31" s="126"/>
+      <c r="C31" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="145" t="s">
+      <c r="D31" s="69"/>
+      <c r="E31" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="145" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="145" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" s="48" t="s">
+      <c r="H31" s="130" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A32" s="104"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="51" t="s">
+      <c r="A32" s="90"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="145" t="s">
+      <c r="D32" s="53"/>
+      <c r="E32" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="F32" s="145" t="s">
-        <v>130</v>
-      </c>
-      <c r="G32" s="145" t="s">
-        <v>129</v>
-      </c>
-      <c r="H32" s="48"/>
+      <c r="H32" s="130"/>
     </row>
     <row r="33" spans="1:9" ht="18.600000000000001" customHeight="1">
-      <c r="A33" s="87"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="51" t="s">
+      <c r="A33" s="91"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="145" t="s">
+      <c r="D33" s="53"/>
+      <c r="E33" s="47" t="s">
+        <v>382</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="F33" s="145" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33" s="145" t="s">
-        <v>132</v>
-      </c>
-      <c r="H33" s="48"/>
+      <c r="H33" s="130"/>
       <c r="I33" s="41"/>
     </row>
     <row r="34" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A34" s="106"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="108" t="s">
+      <c r="A34" s="128"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D34" s="109"/>
+      <c r="D34" s="132"/>
       <c r="E34" s="6" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>372</v>
@@ -3927,39 +3968,39 @@
       <c r="G34" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="H34" s="48"/>
+      <c r="H34" s="130"/>
     </row>
     <row r="35" spans="1:9" ht="18.600000000000001" customHeight="1">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="89" t="s">
+      <c r="C35" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="90"/>
-      <c r="E35" s="146" t="s">
+      <c r="D35" s="111"/>
+      <c r="E35" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="146" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="146" t="s">
-        <v>135</v>
-      </c>
-      <c r="H35" s="48"/>
+      <c r="H35" s="130"/>
     </row>
     <row r="36" spans="1:9" ht="18.600000000000001" customHeight="1">
-      <c r="A36" s="87"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="91" t="s">
+      <c r="A36" s="91"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="92"/>
+      <c r="D36" s="113"/>
       <c r="E36" s="40" t="s">
-        <v>138</v>
+        <v>385</v>
       </c>
       <c r="F36" s="40" t="s">
         <v>139</v>
@@ -3967,19 +4008,19 @@
       <c r="G36" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="H36" s="48"/>
+      <c r="H36" s="130"/>
     </row>
     <row r="37" spans="1:9" ht="18.600000000000001" customHeight="1">
-      <c r="A37" s="87"/>
-      <c r="B37" s="93" t="s">
+      <c r="A37" s="91"/>
+      <c r="B37" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="95" t="s">
+      <c r="C37" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="96"/>
+      <c r="D37" s="117"/>
       <c r="E37" s="8" t="s">
-        <v>141</v>
+        <v>386</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>142</v>
@@ -3987,17 +4028,17 @@
       <c r="G37" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H37" s="48"/>
+      <c r="H37" s="130"/>
     </row>
     <row r="38" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A38" s="88"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="97" t="s">
+      <c r="A38" s="109"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="118" t="s">
         <v>143</v>
       </c>
-      <c r="D38" s="98"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="28" t="s">
-        <v>144</v>
+        <v>387</v>
       </c>
       <c r="F38" s="28" t="s">
         <v>145</v>
@@ -4005,19 +4046,19 @@
       <c r="G38" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="H38" s="48"/>
+      <c r="H38" s="130"/>
     </row>
     <row r="39" spans="1:9" ht="18.600000000000001" customHeight="1">
-      <c r="A39" s="104" t="s">
+      <c r="A39" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="104"/>
-      <c r="C39" s="111" t="s">
+      <c r="B39" s="90"/>
+      <c r="C39" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="D39" s="112"/>
+      <c r="D39" s="94"/>
       <c r="E39" s="39" t="s">
-        <v>147</v>
+        <v>388</v>
       </c>
       <c r="F39" s="39" t="s">
         <v>148</v>
@@ -4025,17 +4066,17 @@
       <c r="G39" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="H39" s="48"/>
+      <c r="H39" s="130"/>
     </row>
     <row r="40" spans="1:9" ht="18.600000000000001" customHeight="1">
-      <c r="A40" s="87"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="57" t="s">
+      <c r="A40" s="91"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="59"/>
+      <c r="D40" s="96"/>
       <c r="E40" s="40" t="s">
-        <v>150</v>
+        <v>389</v>
       </c>
       <c r="F40" s="40" t="s">
         <v>151</v>
@@ -4043,17 +4084,17 @@
       <c r="G40" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="H40" s="48"/>
+      <c r="H40" s="130"/>
     </row>
     <row r="41" spans="1:9" ht="18.600000000000001" customHeight="1">
-      <c r="A41" s="87"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="57" t="s">
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="59"/>
+      <c r="D41" s="96"/>
       <c r="E41" s="40" t="s">
-        <v>153</v>
+        <v>390</v>
       </c>
       <c r="F41" s="40" t="s">
         <v>154</v>
@@ -4061,17 +4102,17 @@
       <c r="G41" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="H41" s="48"/>
+      <c r="H41" s="130"/>
     </row>
     <row r="42" spans="1:9" ht="24" customHeight="1" thickBot="1">
-      <c r="A42" s="134" t="s">
+      <c r="A42" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="135"/>
-      <c r="C42" s="113" t="s">
+      <c r="B42" s="56"/>
+      <c r="C42" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="114"/>
+      <c r="D42" s="98"/>
       <c r="E42" s="23" t="s">
         <v>23</v>
       </c>
@@ -4086,9 +4127,9 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="17.45" customHeight="1">
-      <c r="A43" s="76"/>
-      <c r="B43" s="136"/>
-      <c r="C43" s="137" t="s">
+      <c r="A43" s="57"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="59" t="s">
         <v>74</v>
       </c>
       <c r="D43" s="29" t="s">
@@ -4108,89 +4149,89 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="17.45" customHeight="1">
-      <c r="A44" s="76"/>
-      <c r="B44" s="136"/>
-      <c r="C44" s="138"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="9">
         <v>3</v>
       </c>
-      <c r="F44" s="44" t="s">
+      <c r="F44" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="G44" s="44" t="s">
+      <c r="G44" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="H44" s="44" t="s">
+      <c r="H44" s="42" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="17.45" customHeight="1">
-      <c r="A45" s="76"/>
-      <c r="B45" s="136"/>
-      <c r="C45" s="138"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="9">
         <v>3</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="G45" s="44" t="s">
+      <c r="G45" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="H45" s="44" t="s">
+      <c r="H45" s="42" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="17.45" customHeight="1">
-      <c r="A46" s="76"/>
-      <c r="B46" s="136"/>
-      <c r="C46" s="138"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="9">
         <v>3</v>
       </c>
-      <c r="F46" s="44" t="s">
+      <c r="F46" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="G46" s="44" t="s">
+      <c r="G46" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="42" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="17.45" customHeight="1">
-      <c r="A47" s="76"/>
-      <c r="B47" s="136"/>
-      <c r="C47" s="138"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="60"/>
       <c r="D47" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="9">
         <v>3</v>
       </c>
-      <c r="F47" s="44" t="s">
+      <c r="F47" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="G47" s="44" t="s">
+      <c r="G47" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="H47" s="44" t="s">
+      <c r="H47" s="42" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A48" s="76"/>
-      <c r="B48" s="136"/>
-      <c r="C48" s="139"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="61"/>
       <c r="D48" s="31" t="s">
         <v>11</v>
       </c>
@@ -4208,534 +4249,534 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A49" s="76"/>
-      <c r="B49" s="136"/>
-      <c r="C49" s="141" t="s">
+      <c r="A49" s="57"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="142"/>
+      <c r="D49" s="66"/>
       <c r="E49" s="21">
         <v>4</v>
       </c>
-      <c r="F49" s="143" t="s">
+      <c r="F49" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="143" t="s">
+      <c r="G49" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="H49" s="144" t="s">
+      <c r="H49" s="46" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A50" s="76"/>
-      <c r="B50" s="136"/>
-      <c r="C50" s="115" t="s">
+      <c r="A50" s="57"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="116"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="9">
         <v>4</v>
       </c>
-      <c r="F50" s="143" t="s">
+      <c r="F50" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="G50" s="143" t="s">
+      <c r="G50" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="H50" s="144" t="s">
+      <c r="H50" s="46" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A51" s="76"/>
-      <c r="B51" s="136"/>
-      <c r="C51" s="115" t="s">
+      <c r="A51" s="57"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="116"/>
+      <c r="D51" s="63"/>
       <c r="E51" s="9">
         <v>3</v>
       </c>
-      <c r="F51" s="143" t="s">
+      <c r="F51" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="G51" s="143" t="s">
+      <c r="G51" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="H51" s="144" t="s">
+      <c r="H51" s="46" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A52" s="76"/>
-      <c r="B52" s="136"/>
-      <c r="C52" s="115" t="s">
+      <c r="A52" s="57"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="116"/>
+      <c r="D52" s="63"/>
       <c r="E52" s="9">
         <v>3</v>
       </c>
-      <c r="F52" s="143" t="s">
+      <c r="F52" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="G52" s="143" t="s">
+      <c r="G52" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="H52" s="144" t="s">
+      <c r="H52" s="46" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A53" s="76"/>
-      <c r="B53" s="136"/>
-      <c r="C53" s="115" t="s">
+      <c r="A53" s="57"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="116"/>
+      <c r="D53" s="63"/>
       <c r="E53" s="9">
         <v>3</v>
       </c>
-      <c r="F53" s="143" t="s">
+      <c r="F53" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="G53" s="143" t="s">
+      <c r="G53" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="H53" s="144" t="s">
+      <c r="H53" s="46" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A54" s="76"/>
-      <c r="B54" s="136"/>
-      <c r="C54" s="115" t="s">
+      <c r="A54" s="57"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="116"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="9">
         <v>3</v>
       </c>
-      <c r="F54" s="143" t="s">
+      <c r="F54" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="G54" s="143" t="s">
+      <c r="G54" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="H54" s="144" t="s">
+      <c r="H54" s="46" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A55" s="76"/>
-      <c r="B55" s="136"/>
-      <c r="C55" s="115" t="s">
+      <c r="A55" s="57"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="116"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="9">
         <v>3</v>
       </c>
-      <c r="F55" s="143" t="s">
+      <c r="F55" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="G55" s="143" t="s">
+      <c r="G55" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="H55" s="144" t="s">
+      <c r="H55" s="46" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A56" s="76"/>
-      <c r="B56" s="136"/>
-      <c r="C56" s="115" t="s">
+      <c r="A56" s="57"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="116"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="9">
         <v>3</v>
       </c>
-      <c r="F56" s="143" t="s">
+      <c r="F56" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="G56" s="143" t="s">
+      <c r="G56" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="H56" s="144" t="s">
+      <c r="H56" s="46" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A57" s="76"/>
-      <c r="B57" s="136"/>
-      <c r="C57" s="115" t="s">
+      <c r="A57" s="57"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="116"/>
+      <c r="D57" s="63"/>
       <c r="E57" s="9">
         <v>3</v>
       </c>
-      <c r="F57" s="143" t="s">
+      <c r="F57" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="G57" s="143" t="s">
+      <c r="G57" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="H57" s="144" t="s">
+      <c r="H57" s="46" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A58" s="76"/>
-      <c r="B58" s="136"/>
-      <c r="C58" s="115" t="s">
+      <c r="A58" s="57"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="116"/>
+      <c r="D58" s="63"/>
       <c r="E58" s="9">
         <v>3</v>
       </c>
-      <c r="F58" s="143" t="s">
+      <c r="F58" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="G58" s="143" t="s">
+      <c r="G58" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="H58" s="144" t="s">
+      <c r="H58" s="46" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A59" s="76"/>
-      <c r="B59" s="136"/>
-      <c r="C59" s="115" t="s">
+      <c r="A59" s="57"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="116"/>
+      <c r="D59" s="63"/>
       <c r="E59" s="9">
         <v>3</v>
       </c>
-      <c r="F59" s="143" t="s">
+      <c r="F59" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="G59" s="143" t="s">
+      <c r="G59" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="H59" s="144" t="s">
+      <c r="H59" s="46" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A60" s="76"/>
-      <c r="B60" s="136"/>
-      <c r="C60" s="115" t="s">
+      <c r="A60" s="57"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="116"/>
+      <c r="D60" s="63"/>
       <c r="E60" s="9">
         <v>2</v>
       </c>
-      <c r="F60" s="143" t="s">
+      <c r="F60" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="G60" s="143" t="s">
+      <c r="G60" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="H60" s="144" t="s">
+      <c r="H60" s="46" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A61" s="76"/>
-      <c r="B61" s="136"/>
-      <c r="C61" s="115" t="s">
+      <c r="A61" s="57"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="116"/>
+      <c r="D61" s="63"/>
       <c r="E61" s="9">
         <v>2</v>
       </c>
-      <c r="F61" s="143" t="s">
+      <c r="F61" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="G61" s="143" t="s">
+      <c r="G61" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="H61" s="144" t="s">
+      <c r="H61" s="46" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A62" s="76"/>
-      <c r="B62" s="136"/>
-      <c r="C62" s="115" t="s">
+      <c r="A62" s="57"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D62" s="116"/>
+      <c r="D62" s="63"/>
       <c r="E62" s="9">
         <v>3</v>
       </c>
-      <c r="F62" s="143" t="s">
+      <c r="F62" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="G62" s="143" t="s">
+      <c r="G62" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="H62" s="144" t="s">
+      <c r="H62" s="46" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A63" s="76"/>
-      <c r="B63" s="136"/>
-      <c r="C63" s="115" t="s">
+      <c r="A63" s="57"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="116"/>
+      <c r="D63" s="63"/>
       <c r="E63" s="9">
         <v>3</v>
       </c>
-      <c r="F63" s="143" t="s">
+      <c r="F63" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="G63" s="143" t="s">
+      <c r="G63" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H63" s="144" t="s">
+      <c r="H63" s="46" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A64" s="76"/>
-      <c r="B64" s="136"/>
-      <c r="C64" s="115" t="s">
+      <c r="A64" s="57"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="116"/>
+      <c r="D64" s="63"/>
       <c r="E64" s="9">
         <v>3</v>
       </c>
-      <c r="F64" s="143" t="s">
+      <c r="F64" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="G64" s="143" t="s">
+      <c r="G64" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="H64" s="144" t="s">
+      <c r="H64" s="46" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A65" s="76"/>
-      <c r="B65" s="136"/>
-      <c r="C65" s="115" t="s">
+      <c r="A65" s="57"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="116"/>
+      <c r="D65" s="63"/>
       <c r="E65" s="9">
         <v>3</v>
       </c>
-      <c r="F65" s="143" t="s">
+      <c r="F65" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="G65" s="143" t="s">
+      <c r="G65" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="H65" s="144" t="s">
+      <c r="H65" s="46" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A66" s="76"/>
-      <c r="B66" s="136"/>
-      <c r="C66" s="115" t="s">
+      <c r="A66" s="57"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D66" s="116"/>
+      <c r="D66" s="63"/>
       <c r="E66" s="9">
         <v>3</v>
       </c>
-      <c r="F66" s="143" t="s">
+      <c r="F66" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="G66" s="143" t="s">
+      <c r="G66" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="H66" s="144" t="s">
+      <c r="H66" s="46" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A67" s="76"/>
-      <c r="B67" s="136"/>
-      <c r="C67" s="140" t="s">
+      <c r="A67" s="57"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="140"/>
+      <c r="D67" s="64"/>
       <c r="E67" s="9">
         <v>0</v>
       </c>
-      <c r="F67" s="145" t="s">
+      <c r="F67" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="G67" s="145" t="s">
+      <c r="G67" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="H67" s="145" t="s">
+      <c r="H67" s="47" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A68" s="76"/>
-      <c r="B68" s="136"/>
-      <c r="C68" s="140" t="s">
+      <c r="A68" s="57"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="140"/>
+      <c r="D68" s="64"/>
       <c r="E68" s="9">
         <v>0</v>
       </c>
-      <c r="F68" s="145" t="s">
+      <c r="F68" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="G68" s="145" t="s">
+      <c r="G68" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="H68" s="145" t="s">
+      <c r="H68" s="47" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A69" s="76"/>
-      <c r="B69" s="136"/>
-      <c r="C69" s="115" t="s">
+      <c r="A69" s="57"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="116"/>
+      <c r="D69" s="63"/>
       <c r="E69" s="9">
         <v>0</v>
       </c>
-      <c r="F69" s="145" t="s">
+      <c r="F69" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="G69" s="145" t="s">
+      <c r="G69" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="H69" s="145" t="s">
+      <c r="H69" s="47" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A70" s="76"/>
-      <c r="B70" s="136"/>
-      <c r="C70" s="115" t="s">
+      <c r="A70" s="57"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="116"/>
+      <c r="D70" s="63"/>
       <c r="E70" s="9">
         <v>0</v>
       </c>
-      <c r="F70" s="145" t="s">
+      <c r="F70" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="G70" s="145" t="s">
+      <c r="G70" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="H70" s="145" t="s">
+      <c r="H70" s="47" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A71" s="76"/>
-      <c r="B71" s="136"/>
-      <c r="C71" s="115" t="s">
+      <c r="A71" s="57"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="116"/>
+      <c r="D71" s="63"/>
       <c r="E71" s="9">
         <v>0</v>
       </c>
-      <c r="F71" s="145" t="s">
+      <c r="F71" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="G71" s="145" t="s">
+      <c r="G71" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="H71" s="145" t="s">
+      <c r="H71" s="47" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A72" s="76"/>
-      <c r="B72" s="136"/>
-      <c r="C72" s="115" t="s">
+      <c r="A72" s="57"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="116"/>
+      <c r="D72" s="63"/>
       <c r="E72" s="9">
         <v>0</v>
       </c>
-      <c r="F72" s="145" t="s">
+      <c r="F72" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="G72" s="145" t="s">
+      <c r="G72" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="H72" s="145" t="s">
+      <c r="H72" s="47" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A73" s="76"/>
-      <c r="B73" s="136"/>
-      <c r="C73" s="115" t="s">
+      <c r="A73" s="57"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="116"/>
+      <c r="D73" s="63"/>
       <c r="E73" s="9">
         <v>0</v>
       </c>
-      <c r="F73" s="145" t="s">
+      <c r="F73" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="G73" s="145" t="s">
+      <c r="G73" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="H73" s="145" t="s">
+      <c r="H73" s="47" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A74" s="76"/>
-      <c r="B74" s="136"/>
-      <c r="C74" s="115" t="s">
+      <c r="A74" s="57"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="116"/>
+      <c r="D74" s="63"/>
       <c r="E74" s="9">
         <v>0</v>
       </c>
-      <c r="F74" s="145" t="s">
+      <c r="F74" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="G74" s="145" t="s">
+      <c r="G74" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="H74" s="145" t="s">
+      <c r="H74" s="47" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A75" s="126" t="s">
+      <c r="A75" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="127"/>
-      <c r="C75" s="117" t="s">
+      <c r="B75" s="84"/>
+      <c r="C75" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="117"/>
+      <c r="D75" s="76"/>
       <c r="E75" s="26" t="s">
         <v>25</v>
       </c>
@@ -4750,178 +4791,178 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A76" s="128"/>
-      <c r="B76" s="129"/>
-      <c r="C76" s="70" t="s">
+      <c r="A76" s="85"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="D76" s="71"/>
-      <c r="E76" s="145" t="s">
+      <c r="D76" s="69"/>
+      <c r="E76" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="F76" s="145" t="s">
+      <c r="F76" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="G76" s="145" t="s">
+      <c r="G76" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="H76" s="124" t="s">
+      <c r="H76" s="80" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A77" s="128"/>
-      <c r="B77" s="129"/>
-      <c r="C77" s="49" t="s">
+      <c r="A77" s="85"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="D77" s="50"/>
-      <c r="E77" s="145" t="s">
+      <c r="D77" s="52"/>
+      <c r="E77" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="F77" s="145" t="s">
+      <c r="F77" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="G77" s="145" t="s">
+      <c r="G77" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="H77" s="125"/>
+      <c r="H77" s="81"/>
     </row>
     <row r="78" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A78" s="128"/>
-      <c r="B78" s="129"/>
-      <c r="C78" s="49" t="s">
+      <c r="A78" s="85"/>
+      <c r="B78" s="86"/>
+      <c r="C78" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="D78" s="50"/>
-      <c r="E78" s="145" t="s">
+      <c r="D78" s="52"/>
+      <c r="E78" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="F78" s="145" t="s">
+      <c r="F78" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="G78" s="145" t="s">
+      <c r="G78" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="H78" s="125"/>
+      <c r="H78" s="81"/>
     </row>
     <row r="79" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A79" s="128"/>
-      <c r="B79" s="129"/>
-      <c r="C79" s="49" t="s">
+      <c r="A79" s="85"/>
+      <c r="B79" s="86"/>
+      <c r="C79" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="D79" s="50"/>
-      <c r="E79" s="145" t="s">
+      <c r="D79" s="52"/>
+      <c r="E79" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="F79" s="145" t="s">
+      <c r="F79" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="G79" s="145" t="s">
+      <c r="G79" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="H79" s="125"/>
+      <c r="H79" s="81"/>
     </row>
     <row r="80" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A80" s="128"/>
-      <c r="B80" s="129"/>
-      <c r="C80" s="49" t="s">
+      <c r="A80" s="85"/>
+      <c r="B80" s="86"/>
+      <c r="C80" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D80" s="50"/>
-      <c r="E80" s="145" t="s">
+      <c r="D80" s="52"/>
+      <c r="E80" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="F80" s="145" t="s">
+      <c r="F80" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="G80" s="145" t="s">
+      <c r="G80" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="H80" s="125"/>
+      <c r="H80" s="81"/>
     </row>
     <row r="81" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A81" s="128"/>
-      <c r="B81" s="129"/>
-      <c r="C81" s="49" t="s">
+      <c r="A81" s="85"/>
+      <c r="B81" s="86"/>
+      <c r="C81" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="D81" s="50"/>
-      <c r="E81" s="145" t="s">
+      <c r="D81" s="52"/>
+      <c r="E81" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="F81" s="145" t="s">
+      <c r="F81" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="G81" s="145" t="s">
+      <c r="G81" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="H81" s="125"/>
+      <c r="H81" s="81"/>
     </row>
     <row r="82" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A82" s="128"/>
-      <c r="B82" s="129"/>
-      <c r="C82" s="49" t="s">
+      <c r="A82" s="85"/>
+      <c r="B82" s="86"/>
+      <c r="C82" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="D82" s="50"/>
-      <c r="E82" s="145" t="s">
+      <c r="D82" s="52"/>
+      <c r="E82" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="F82" s="145" t="s">
+      <c r="F82" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="G82" s="145" t="s">
+      <c r="G82" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="H82" s="125"/>
+      <c r="H82" s="81"/>
     </row>
     <row r="83" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A83" s="128"/>
-      <c r="B83" s="129"/>
-      <c r="C83" s="49" t="s">
+      <c r="A83" s="85"/>
+      <c r="B83" s="86"/>
+      <c r="C83" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="D83" s="50"/>
-      <c r="E83" s="145" t="s">
+      <c r="D83" s="52"/>
+      <c r="E83" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="F83" s="145" t="s">
+      <c r="F83" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="G83" s="145" t="s">
+      <c r="G83" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="H83" s="125"/>
+      <c r="H83" s="81"/>
     </row>
     <row r="84" spans="1:8" ht="18" customHeight="1">
-      <c r="A84" s="130"/>
-      <c r="B84" s="131"/>
-      <c r="C84" s="49" t="s">
+      <c r="A84" s="87"/>
+      <c r="B84" s="88"/>
+      <c r="C84" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="D84" s="50"/>
-      <c r="E84" s="145" t="s">
+      <c r="D84" s="52"/>
+      <c r="E84" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="F84" s="145" t="s">
+      <c r="F84" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="G84" s="145" t="s">
+      <c r="G84" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="H84" s="47"/>
+      <c r="H84" s="82"/>
     </row>
     <row r="85" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A85" s="126" t="s">
+      <c r="A85" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="B85" s="127"/>
-      <c r="C85" s="110" t="s">
+      <c r="B85" s="84"/>
+      <c r="C85" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="110"/>
+      <c r="D85" s="92"/>
       <c r="E85" s="23" t="s">
         <v>25</v>
       </c>
@@ -4936,112 +4977,112 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A86" s="128"/>
-      <c r="B86" s="129"/>
-      <c r="C86" s="70" t="s">
+      <c r="A86" s="85"/>
+      <c r="B86" s="86"/>
+      <c r="C86" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="D86" s="71"/>
-      <c r="E86" s="145" t="s">
+      <c r="D86" s="69"/>
+      <c r="E86" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="F86" s="145" t="s">
+      <c r="F86" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="G86" s="146" t="s">
+      <c r="G86" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="H86" s="47" t="s">
+      <c r="H86" s="82" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A87" s="128"/>
-      <c r="B87" s="129"/>
-      <c r="C87" s="51" t="s">
+      <c r="A87" s="85"/>
+      <c r="B87" s="86"/>
+      <c r="C87" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="D87" s="51"/>
-      <c r="E87" s="145" t="s">
+      <c r="D87" s="53"/>
+      <c r="E87" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="F87" s="145" t="s">
+      <c r="F87" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="G87" s="145" t="s">
+      <c r="G87" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="H87" s="48"/>
+      <c r="H87" s="130"/>
     </row>
     <row r="88" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A88" s="128"/>
-      <c r="B88" s="129"/>
-      <c r="C88" s="51" t="s">
+      <c r="A88" s="85"/>
+      <c r="B88" s="86"/>
+      <c r="C88" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="D88" s="51"/>
-      <c r="E88" s="145" t="s">
+      <c r="D88" s="53"/>
+      <c r="E88" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="F88" s="145" t="s">
+      <c r="F88" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="G88" s="145" t="s">
+      <c r="G88" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="H88" s="48"/>
+      <c r="H88" s="130"/>
     </row>
     <row r="89" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A89" s="128"/>
-      <c r="B89" s="129"/>
-      <c r="C89" s="51" t="s">
+      <c r="A89" s="85"/>
+      <c r="B89" s="86"/>
+      <c r="C89" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="D89" s="51"/>
-      <c r="E89" s="145" t="s">
+      <c r="D89" s="53"/>
+      <c r="E89" s="47" t="s">
         <v>302</v>
       </c>
-      <c r="F89" s="145" t="s">
+      <c r="F89" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="G89" s="145" t="s">
+      <c r="G89" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="H89" s="48"/>
+      <c r="H89" s="130"/>
     </row>
     <row r="90" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A90" s="130"/>
-      <c r="B90" s="131"/>
-      <c r="C90" s="51" t="s">
+      <c r="A90" s="87"/>
+      <c r="B90" s="88"/>
+      <c r="C90" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="D90" s="51"/>
-      <c r="E90" s="145" t="s">
+      <c r="D90" s="53"/>
+      <c r="E90" s="47" t="s">
         <v>306</v>
       </c>
-      <c r="F90" s="145" t="s">
+      <c r="F90" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="G90" s="145" t="s">
+      <c r="G90" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="H90" s="48"/>
+      <c r="H90" s="130"/>
     </row>
     <row r="91" spans="1:8" ht="12" customHeight="1">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="46"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="44"/>
     </row>
     <row r="92" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A92" s="132" t="s">
+      <c r="A92" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="B92" s="132"/>
-      <c r="C92" s="133" t="s">
+      <c r="B92" s="89"/>
+      <c r="C92" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D92" s="133"/>
+      <c r="D92" s="67"/>
       <c r="E92" s="23" t="s">
         <v>25</v>
       </c>
@@ -5056,128 +5097,128 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A93" s="132"/>
-      <c r="B93" s="132"/>
-      <c r="C93" s="70" t="s">
+      <c r="A93" s="89"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="D93" s="71"/>
-      <c r="E93" s="145" t="s">
+      <c r="D93" s="69"/>
+      <c r="E93" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="F93" s="145" t="s">
+      <c r="F93" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="G93" s="145" t="s">
+      <c r="G93" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="H93" s="148" t="s">
+      <c r="H93" s="77" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A94" s="132"/>
-      <c r="B94" s="132"/>
-      <c r="C94" s="49" t="s">
+      <c r="A94" s="89"/>
+      <c r="B94" s="89"/>
+      <c r="C94" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="D94" s="50"/>
-      <c r="E94" s="145" t="s">
+      <c r="D94" s="52"/>
+      <c r="E94" s="47" t="s">
         <v>315</v>
       </c>
-      <c r="F94" s="145" t="s">
+      <c r="F94" s="47" t="s">
         <v>316</v>
       </c>
-      <c r="G94" s="145" t="s">
+      <c r="G94" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="H94" s="149"/>
+      <c r="H94" s="78"/>
     </row>
     <row r="95" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A95" s="132"/>
-      <c r="B95" s="132"/>
-      <c r="C95" s="49" t="s">
+      <c r="A95" s="89"/>
+      <c r="B95" s="89"/>
+      <c r="C95" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="D95" s="50"/>
-      <c r="E95" s="145" t="s">
+      <c r="D95" s="52"/>
+      <c r="E95" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="F95" s="145" t="s">
+      <c r="F95" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="G95" s="145" t="s">
+      <c r="G95" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="H95" s="149"/>
+      <c r="H95" s="78"/>
     </row>
     <row r="96" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A96" s="132"/>
-      <c r="B96" s="132"/>
-      <c r="C96" s="49" t="s">
+      <c r="A96" s="89"/>
+      <c r="B96" s="89"/>
+      <c r="C96" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="D96" s="50"/>
-      <c r="E96" s="145" t="s">
+      <c r="D96" s="52"/>
+      <c r="E96" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="F96" s="145" t="s">
+      <c r="F96" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="G96" s="145" t="s">
+      <c r="G96" s="47" t="s">
         <v>325</v>
       </c>
-      <c r="H96" s="149"/>
+      <c r="H96" s="78"/>
     </row>
     <row r="97" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A97" s="132"/>
-      <c r="B97" s="132"/>
-      <c r="C97" s="49" t="s">
+      <c r="A97" s="89"/>
+      <c r="B97" s="89"/>
+      <c r="C97" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="D97" s="50"/>
-      <c r="E97" s="145" t="s">
+      <c r="D97" s="52"/>
+      <c r="E97" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="F97" s="145" t="s">
+      <c r="F97" s="47" t="s">
         <v>328</v>
       </c>
-      <c r="G97" s="145" t="s">
+      <c r="G97" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="H97" s="149"/>
+      <c r="H97" s="78"/>
     </row>
     <row r="98" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A98" s="132"/>
-      <c r="B98" s="132"/>
-      <c r="C98" s="49" t="s">
+      <c r="A98" s="89"/>
+      <c r="B98" s="89"/>
+      <c r="C98" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="D98" s="50"/>
-      <c r="E98" s="145" t="s">
+      <c r="D98" s="52"/>
+      <c r="E98" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="F98" s="145" t="s">
+      <c r="F98" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="G98" s="145" t="s">
+      <c r="G98" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="H98" s="150"/>
+      <c r="H98" s="79"/>
     </row>
     <row r="99" spans="1:8" ht="12" customHeight="1">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
     </row>
     <row r="100" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A100" s="118" t="s">
+      <c r="A100" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="B100" s="119"/>
-      <c r="C100" s="133" t="s">
+      <c r="B100" s="71"/>
+      <c r="C100" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D100" s="133"/>
+      <c r="D100" s="67"/>
       <c r="E100" s="23" t="s">
         <v>25</v>
       </c>
@@ -5192,92 +5233,92 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A101" s="120"/>
-      <c r="B101" s="121"/>
-      <c r="C101" s="70" t="s">
+      <c r="A101" s="72"/>
+      <c r="B101" s="73"/>
+      <c r="C101" s="68" t="s">
         <v>334</v>
       </c>
-      <c r="D101" s="71"/>
-      <c r="E101" s="145" t="s">
+      <c r="D101" s="69"/>
+      <c r="E101" s="47" t="s">
         <v>335</v>
       </c>
-      <c r="F101" s="145" t="s">
+      <c r="F101" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="G101" s="145" t="s">
+      <c r="G101" s="47" t="s">
         <v>337</v>
       </c>
-      <c r="H101" s="148" t="s">
+      <c r="H101" s="77" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A102" s="120"/>
-      <c r="B102" s="121"/>
-      <c r="C102" s="49" t="s">
+      <c r="A102" s="72"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="D102" s="50"/>
-      <c r="E102" s="145" t="s">
+      <c r="D102" s="52"/>
+      <c r="E102" s="47" t="s">
         <v>339</v>
       </c>
-      <c r="F102" s="145" t="s">
+      <c r="F102" s="47" t="s">
         <v>340</v>
       </c>
-      <c r="G102" s="145" t="s">
+      <c r="G102" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="H102" s="149"/>
+      <c r="H102" s="78"/>
     </row>
     <row r="103" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A103" s="120"/>
-      <c r="B103" s="121"/>
-      <c r="C103" s="49" t="s">
+      <c r="A103" s="72"/>
+      <c r="B103" s="73"/>
+      <c r="C103" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="D103" s="50"/>
-      <c r="E103" s="145" t="s">
+      <c r="D103" s="52"/>
+      <c r="E103" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="F103" s="145" t="s">
+      <c r="F103" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="G103" s="145" t="s">
+      <c r="G103" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="H103" s="149"/>
+      <c r="H103" s="78"/>
     </row>
     <row r="104" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A104" s="122"/>
-      <c r="B104" s="123"/>
-      <c r="C104" s="49" t="s">
+      <c r="A104" s="74"/>
+      <c r="B104" s="75"/>
+      <c r="C104" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="D104" s="50"/>
-      <c r="E104" s="145" t="s">
+      <c r="D104" s="52"/>
+      <c r="E104" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="F104" s="145" t="s">
+      <c r="F104" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="G104" s="145" t="s">
+      <c r="G104" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="H104" s="150"/>
+      <c r="H104" s="79"/>
     </row>
     <row r="105" spans="1:8" ht="12" customHeight="1">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
     </row>
     <row r="106" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A106" s="118" t="s">
+      <c r="A106" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B106" s="119"/>
-      <c r="C106" s="133" t="s">
+      <c r="B106" s="71"/>
+      <c r="C106" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D106" s="133"/>
+      <c r="D106" s="67"/>
       <c r="E106" s="23" t="s">
         <v>25</v>
       </c>
@@ -5292,102 +5333,102 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A107" s="120"/>
-      <c r="B107" s="121"/>
-      <c r="C107" s="70" t="s">
+      <c r="A107" s="72"/>
+      <c r="B107" s="73"/>
+      <c r="C107" s="68" t="s">
         <v>350</v>
       </c>
-      <c r="D107" s="71"/>
-      <c r="E107" s="145" t="s">
+      <c r="D107" s="69"/>
+      <c r="E107" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="F107" s="145" t="s">
+      <c r="F107" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="G107" s="145" t="s">
+      <c r="G107" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="H107" s="145" t="s">
+      <c r="H107" s="47" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A108" s="120"/>
-      <c r="B108" s="121"/>
-      <c r="C108" s="49" t="s">
+      <c r="A108" s="72"/>
+      <c r="B108" s="73"/>
+      <c r="C108" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D108" s="50"/>
-      <c r="E108" s="145" t="s">
+      <c r="D108" s="52"/>
+      <c r="E108" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="F108" s="145" t="s">
+      <c r="F108" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="G108" s="145" t="s">
+      <c r="G108" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="H108" s="145" t="s">
+      <c r="H108" s="47" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A109" s="120"/>
-      <c r="B109" s="121"/>
-      <c r="C109" s="49" t="s">
+      <c r="A109" s="72"/>
+      <c r="B109" s="73"/>
+      <c r="C109" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="D109" s="50"/>
-      <c r="E109" s="145" t="s">
+      <c r="D109" s="52"/>
+      <c r="E109" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="F109" s="145" t="s">
+      <c r="F109" s="47" t="s">
         <v>360</v>
       </c>
-      <c r="G109" s="145" t="s">
+      <c r="G109" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="H109" s="145" t="s">
+      <c r="H109" s="47" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A110" s="120"/>
-      <c r="B110" s="121"/>
-      <c r="C110" s="49" t="s">
+      <c r="A110" s="72"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="D110" s="50"/>
-      <c r="E110" s="145" t="s">
+      <c r="D110" s="52"/>
+      <c r="E110" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="F110" s="145" t="s">
+      <c r="F110" s="47" t="s">
         <v>364</v>
       </c>
-      <c r="G110" s="145" t="s">
+      <c r="G110" s="47" t="s">
         <v>365</v>
       </c>
-      <c r="H110" s="145" t="s">
+      <c r="H110" s="47" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="18" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A111" s="122"/>
-      <c r="B111" s="123"/>
-      <c r="C111" s="49" t="s">
+      <c r="A111" s="74"/>
+      <c r="B111" s="75"/>
+      <c r="C111" s="51" t="s">
         <v>366</v>
       </c>
-      <c r="D111" s="50"/>
-      <c r="E111" s="145" t="s">
+      <c r="D111" s="52"/>
+      <c r="E111" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="F111" s="145" t="s">
+      <c r="F111" s="47" t="s">
         <v>368</v>
       </c>
-      <c r="G111" s="145" t="s">
+      <c r="G111" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="H111" s="145" t="s">
+      <c r="H111" s="47" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5447,10 +5488,10 @@
       </c>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
-      <c r="D118" s="61" t="s">
+      <c r="D118" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="E118" s="61"/>
+      <c r="E118" s="54"/>
       <c r="F118" s="17"/>
       <c r="G118" s="17"/>
       <c r="H118" s="20"/>
@@ -21860,6 +21901,102 @@
     <row r="131" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="H86:H90"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:B18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A31:B34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="H31:H41"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A39:B41"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="A106:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="H76:H84"/>
+    <mergeCell ref="A75:B84"/>
+    <mergeCell ref="A85:B90"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="A92:B98"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="H93:H98"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C81:D81"/>
@@ -21884,102 +22021,6 @@
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="H101:H104"/>
-    <mergeCell ref="A106:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="H76:H84"/>
-    <mergeCell ref="A75:B84"/>
-    <mergeCell ref="A85:B90"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A92:B98"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="H93:H98"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A39:B41"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A31:B34"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="H31:H41"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="H86:H90"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:B18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
